--- a/site_progress.xlsx
+++ b/site_progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/658fe8642cca0cf3/site/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\PersonalSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C8262A60-F62C-4E41-BEF0-1BE0265DAF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EF79FCF-8D49-40E2-9635-43223AE8DCDF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6062E24-4F35-40A1-8D2E-9096ABB7F276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{820B2080-E8E2-4B12-8A2D-696A191F5929}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Landing page</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Cleanup</t>
+  </si>
+  <si>
+    <t>appointments</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509E3A21-C985-4FE6-9098-E6354C80FBD1}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" activeCellId="1" sqref="A10 G13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,8 +497,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
